--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 6_.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 6_.xlsx_with_dialog_acts.xlsx
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3607,12 +3607,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4223,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
